--- a/ex_project/26046/SoilSuction_26046.xlsx
+++ b/ex_project/26046/SoilSuction_26046.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -34,10 +34,10 @@
     <t>Bottom</t>
   </si>
   <si>
-    <t>11/16/2025</t>
-  </si>
-  <si>
-    <t>B-12</t>
+    <t>11/18/2025</t>
+  </si>
+  <si>
+    <t>B-11</t>
   </si>
   <si>
     <t>1.5 - 3</t>
@@ -49,7 +49,94 @@
     <t>3 - 4.5</t>
   </si>
   <si>
+    <t>432fssd</t>
+  </si>
+  <si>
     <t>4.5 - 6</t>
+  </si>
+  <si>
+    <t>dsfds</t>
+  </si>
+  <si>
+    <t>9 - 10</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>14 - 15</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>19 - 20</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>B-14</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>trf</t>
+  </si>
+  <si>
+    <t>fdgg</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d21312</t>
+  </si>
+  <si>
+    <t>B-20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3213</t>
+  </si>
+  <si>
+    <t>321333321</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>B-26</t>
+  </si>
+  <si>
+    <t>3213213213</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -426,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -437,10 +524,304 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
